--- a/実験/第2回自作LB実験（計測プログラム利用）/実験データトリミング（6時間） (自動保存済み).xlsx
+++ b/実験/第2回自作LB実験（計測プログラム利用）/実験データトリミング（6時間） (自動保存済み).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12190" windowHeight="5900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12190" windowHeight="5900"/>
   </bookViews>
   <sheets>
     <sheet name="提案システム" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="15">
   <si>
     <t>観光地検索画面 192.168.1.81</t>
   </si>
@@ -131,6 +131,34 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>割り振り先の頻度</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81サーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>82サーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83サーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,6 +230,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,7 +1000,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5780,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="I3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5795,7 +5825,7 @@
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -5803,7 +5833,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -5817,7 +5847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44484.968664085645</v>
       </c>
@@ -5831,8 +5861,13 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44484.972137916666</v>
       </c>
@@ -5849,8 +5884,17 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44484.975610810186</v>
       </c>
@@ -5868,8 +5912,20 @@
         <f>AVERAGE(C3:C75)</f>
         <v>0.13348145205479453</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="6">
+        <f>COUNTIF($D$3:$D$75,"観光地検索画面 192.168.1.81")</f>
+        <v>73</v>
+      </c>
+      <c r="J5" s="6">
+        <f>COUNTIF($D$3:$D$75,"観光地検索画面 192.168.1.82")</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <f>COUNTIF($D$3:$D$75,"観光地検索画面 192.168.1.83")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44484.979084537037</v>
       </c>
@@ -5884,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44484.982558263888</v>
       </c>
@@ -5899,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44484.986032060187</v>
       </c>
@@ -5914,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44484.98950596065</v>
       </c>
@@ -5929,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44484.99297979167</v>
       </c>
@@ -5944,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44484.99645353009</v>
       </c>
@@ -5959,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44484.99992736111</v>
       </c>
@@ -5974,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44485.003401168979</v>
       </c>
@@ -5989,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44485.006875046296</v>
       </c>
@@ -6004,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44485.010348923613</v>
       </c>
@@ -6019,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44485.01382270833</v>
       </c>
@@ -6920,8 +6976,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8086,35 +8143,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D15:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="15" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="L15" s="6" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="L15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="6">
+      <c r="D16" s="8">
         <v>0.13348145205479453</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="L16" s="6">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="L16" s="8">
         <v>0.71724004109589057</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
